--- a/contratos/contratos-9-2021.xlsx
+++ b/contratos/contratos-9-2021.xlsx
@@ -64,10 +64,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>836,00</t>
-  </si>
-  <si>
-    <t>8.753,00</t>
+    <t>836.00</t>
+  </si>
+  <si>
+    <t>8753.00</t>
   </si>
 </sst>
 </file>
